--- a/Analytics/SP1/laliga_shirts_sp1.xlsx
+++ b/Analytics/SP1/laliga_shirts_sp1.xlsx
@@ -82,73 +82,73 @@
     <t>20</t>
   </si>
   <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
     <t>Girona</t>
   </si>
   <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Almeria</t>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Alaves</t>
   </si>
   <si>
     <t>Ath Madrid</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
     <t>Vallecano</t>
   </si>
   <si>
-    <t>Las Palmas</t>
+    <t>Leganes</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
   </si>
   <si>
     <t>Getafe</t>
   </si>
   <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("Tlaliga_shirts")</t>
   </si>
   <si>
-    <t>SUM("Tlaliga_shirts") / 38</t>
+    <t>SUM("Tlaliga_shirts") / 12</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>959.0</v>
+        <v>299.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>884.0</v>
+        <v>289.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>844.0</v>
+        <v>276.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>833.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>830.0</v>
+        <v>233.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>815.0</v>
+        <v>233.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>758.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>727.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>696.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>671.0</v>
+        <v>204.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>665.0</v>
+        <v>193.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>655.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>647.0</v>
+        <v>157.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>621.0</v>
+        <v>157.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>610.0</v>
+        <v>148.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>581.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>566.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>494.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>459.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>440.0</v>
+        <v>65.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>927.0</v>
+        <v>363.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>883.0</v>
+        <v>322.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>850.0</v>
+        <v>321.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>822.0</v>
+        <v>259.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>822.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>789.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>744.0</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>731.0</v>
+        <v>181.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>721.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
-        <v>713.0</v>
+        <v>172.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>673.0</v>
+        <v>168.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>660.0</v>
+        <v>159.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
-        <v>622.0</v>
+        <v>138.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>619.0</v>
+        <v>137.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>579.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>573.0</v>
+        <v>123.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C18" t="n">
-        <v>560.0</v>
+        <v>118.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C19" t="n">
-        <v>552.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
-        <v>472.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="n">
-        <v>443.0</v>
+        <v>57.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>1742.0</v>
+        <v>639.0</v>
       </c>
       <c r="D2" t="n">
-        <v>45.8421052631579</v>
+        <v>53.25</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>1734.0</v>
+        <v>539.0</v>
       </c>
       <c r="D3" t="n">
-        <v>45.63157894736842</v>
+        <v>44.916666666666664</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>1690.0</v>
+        <v>535.0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.473684210526315</v>
+        <v>44.583333333333336</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>1666.0</v>
+        <v>493.0</v>
       </c>
       <c r="D5" t="n">
-        <v>43.8421052631579</v>
+        <v>41.083333333333336</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>1579.0</v>
+        <v>479.0</v>
       </c>
       <c r="D6" t="n">
-        <v>41.55263157894737</v>
+        <v>39.916666666666664</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>1577.0</v>
+        <v>427.0</v>
       </c>
       <c r="D7" t="n">
-        <v>41.5</v>
+        <v>35.583333333333336</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>1543.0</v>
+        <v>412.0</v>
       </c>
       <c r="D8" t="n">
-        <v>40.60526315789474</v>
+        <v>34.333333333333336</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>1469.0</v>
+        <v>392.0</v>
       </c>
       <c r="D9" t="n">
-        <v>38.6578947368421</v>
+        <v>32.666666666666664</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>1376.0</v>
+        <v>388.0</v>
       </c>
       <c r="D10" t="n">
-        <v>36.21052631578947</v>
+        <v>32.333333333333336</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>1370.0</v>
+        <v>373.0</v>
       </c>
       <c r="D11" t="n">
-        <v>36.05263157894737</v>
+        <v>31.083333333333332</v>
       </c>
     </row>
     <row r="12">
@@ -843,10 +843,10 @@
         <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>1293.0</v>
+        <v>341.0</v>
       </c>
       <c r="D12" t="n">
-        <v>34.026315789473685</v>
+        <v>28.416666666666668</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>1284.0</v>
+        <v>332.0</v>
       </c>
       <c r="D13" t="n">
-        <v>33.78947368421053</v>
+        <v>27.666666666666668</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>1279.0</v>
+        <v>329.0</v>
       </c>
       <c r="D14" t="n">
-        <v>33.6578947368421</v>
+        <v>27.416666666666668</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n">
-        <v>1201.0</v>
+        <v>298.0</v>
       </c>
       <c r="D15" t="n">
-        <v>31.605263157894736</v>
+        <v>24.833333333333332</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>1170.0</v>
+        <v>278.0</v>
       </c>
       <c r="D16" t="n">
-        <v>30.789473684210527</v>
+        <v>23.166666666666668</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>1145.0</v>
+        <v>277.0</v>
       </c>
       <c r="D17" t="n">
-        <v>30.13157894736842</v>
+        <v>23.083333333333332</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>1132.0</v>
+        <v>271.0</v>
       </c>
       <c r="D18" t="n">
-        <v>29.789473684210527</v>
+        <v>22.583333333333332</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>1100.0</v>
+        <v>266.0</v>
       </c>
       <c r="D19" t="n">
-        <v>28.94736842105263</v>
+        <v>22.166666666666668</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>1093.0</v>
+        <v>262.0</v>
       </c>
       <c r="D20" t="n">
-        <v>28.763157894736842</v>
+        <v>21.833333333333332</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>1067.0</v>
+        <v>183.0</v>
       </c>
       <c r="D21" t="n">
-        <v>28.07894736842105</v>
+        <v>15.25</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SP1/laliga_shirts_sp1.xlsx
+++ b/Analytics/SP1/laliga_shirts_sp1.xlsx
@@ -88,55 +88,55 @@
     <t>Osasuna</t>
   </si>
   <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
     <t>Barcelona</t>
   </si>
   <si>
     <t>Celta</t>
   </si>
   <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Vallecano</t>
+  </si>
+  <si>
     <t>Espanol</t>
   </si>
   <si>
     <t>Real Madrid</t>
   </si>
   <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
     <t>Sociedad</t>
   </si>
   <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
     <t>Sevilla</t>
   </si>
   <si>
     <t>Alaves</t>
   </si>
   <si>
-    <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
     <t>Leganes</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
   </si>
   <si>
     <t>Getafe</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>299.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>289.0</v>
+        <v>411.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>276.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>234.0</v>
+        <v>349.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>233.0</v>
+        <v>336.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>233.0</v>
+        <v>323.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>214.0</v>
+        <v>298.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>214.0</v>
+        <v>288.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>211.0</v>
+        <v>273.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>204.0</v>
+        <v>273.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>193.0</v>
+        <v>266.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>170.0</v>
+        <v>263.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>157.0</v>
+        <v>261.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>157.0</v>
+        <v>258.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>148.0</v>
+        <v>249.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>143.0</v>
+        <v>238.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>126.0</v>
+        <v>233.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0</v>
+        <v>206.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>81.0</v>
+        <v>181.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>65.0</v>
+        <v>134.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>363.0</v>
+        <v>585.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>322.0</v>
+        <v>459.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>321.0</v>
+        <v>399.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>259.0</v>
+        <v>381.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>255.0</v>
+        <v>359.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>240.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>225.0</v>
+        <v>339.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>181.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>177.0</v>
+        <v>293.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>172.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>168.0</v>
+        <v>238.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>159.0</v>
+        <v>231.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>138.0</v>
+        <v>231.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>137.0</v>
+        <v>207.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
-        <v>136.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>123.0</v>
+        <v>197.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C18" t="n">
-        <v>118.0</v>
+        <v>192.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>107.0</v>
+        <v>188.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>99.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v>57.0</v>
+        <v>105.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>639.0</v>
+        <v>934.0</v>
       </c>
       <c r="D2" t="n">
-        <v>53.25</v>
+        <v>77.83333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>539.0</v>
+        <v>849.0</v>
       </c>
       <c r="D3" t="n">
-        <v>44.916666666666664</v>
+        <v>70.75</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>535.0</v>
+        <v>743.0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.583333333333336</v>
+        <v>61.916666666666664</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>493.0</v>
+        <v>717.0</v>
       </c>
       <c r="D5" t="n">
-        <v>41.083333333333336</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>479.0</v>
+        <v>657.0</v>
       </c>
       <c r="D6" t="n">
-        <v>39.916666666666664</v>
+        <v>54.75</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>427.0</v>
+        <v>616.0</v>
       </c>
       <c r="D7" t="n">
-        <v>35.583333333333336</v>
+        <v>51.333333333333336</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>412.0</v>
+        <v>613.0</v>
       </c>
       <c r="D8" t="n">
-        <v>34.333333333333336</v>
+        <v>51.083333333333336</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>392.0</v>
+        <v>603.0</v>
       </c>
       <c r="D9" t="n">
-        <v>32.666666666666664</v>
+        <v>50.25</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>388.0</v>
+        <v>572.0</v>
       </c>
       <c r="D10" t="n">
-        <v>32.333333333333336</v>
+        <v>47.666666666666664</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>373.0</v>
+        <v>565.0</v>
       </c>
       <c r="D11" t="n">
-        <v>31.083333333333332</v>
+        <v>47.083333333333336</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>341.0</v>
+        <v>533.0</v>
       </c>
       <c r="D12" t="n">
-        <v>28.416666666666668</v>
+        <v>44.416666666666664</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>332.0</v>
+        <v>529.0</v>
       </c>
       <c r="D13" t="n">
-        <v>27.666666666666668</v>
+        <v>44.083333333333336</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>329.0</v>
+        <v>511.0</v>
       </c>
       <c r="D14" t="n">
-        <v>27.416666666666668</v>
+        <v>42.583333333333336</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>298.0</v>
+        <v>486.0</v>
       </c>
       <c r="D15" t="n">
-        <v>24.833333333333332</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>278.0</v>
+        <v>480.0</v>
       </c>
       <c r="D16" t="n">
-        <v>23.166666666666668</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>277.0</v>
+        <v>473.0</v>
       </c>
       <c r="D17" t="n">
-        <v>23.083333333333332</v>
+        <v>39.416666666666664</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>271.0</v>
+        <v>458.0</v>
       </c>
       <c r="D18" t="n">
-        <v>22.583333333333332</v>
+        <v>38.166666666666664</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>266.0</v>
+        <v>369.0</v>
       </c>
       <c r="D19" t="n">
-        <v>22.166666666666668</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>262.0</v>
+        <v>343.0</v>
       </c>
       <c r="D20" t="n">
-        <v>21.833333333333332</v>
+        <v>28.583333333333332</v>
       </c>
     </row>
     <row r="21">
@@ -969,10 +969,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>183.0</v>
+        <v>275.0</v>
       </c>
       <c r="D21" t="n">
-        <v>15.25</v>
+        <v>22.916666666666668</v>
       </c>
     </row>
   </sheetData>
